--- a/Data/Traffic/VMT/SaltLakeVMT_Day.xlsx
+++ b/Data/Traffic/VMT/SaltLakeVMT_Day.xlsx
@@ -5,21 +5,21 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aawang\Covid_Model\Data\Traffic\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aawang\Covid_Model\Data\Traffic\VMT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDD717C2-05CA-4890-A56F-8061D351081D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42BB42ED-DF3E-4EF2-AD4D-CF526346E34B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7740" yWindow="2745" windowWidth="15375" windowHeight="8415" tabRatio="212" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4095" yWindow="4380" windowWidth="15375" windowHeight="8340" tabRatio="449" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
     <sheet name="Report Data" sheetId="1" r:id="rId2"/>
     <sheet name="PeMS Report Description" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="19" r:id="rId4"/>
+    <pivotCache cacheId="5" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="201">
   <si>
     <t>Day</t>
   </si>
@@ -152,9 +152,6 @@
   </si>
   <si>
     <t>Sum of VMT (Veh-Miles)</t>
-  </si>
-  <si>
-    <t>&lt;1/7/2019</t>
   </si>
   <si>
     <t>1/7/2019 - 1/13/2019</t>
@@ -625,7 +622,22 @@
     <t>12/27/2021 - 1/2/2022</t>
   </si>
   <si>
-    <t>1/3/2022 - 1/6/2022</t>
+    <t>12/31/2018 - 1/6/2019</t>
+  </si>
+  <si>
+    <t>1/3/2022 - 1/9/2022</t>
+  </si>
+  <si>
+    <t>1/10/2022 - 1/16/2022</t>
+  </si>
+  <si>
+    <t>1/17/2022 - 1/23/2022</t>
+  </si>
+  <si>
+    <t>1/24/2022 - 1/30/2022</t>
+  </si>
+  <si>
+    <t>1/31/2022 - 2/6/2022</t>
   </si>
 </sst>
 </file>
@@ -859,13 +871,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="aawang" refreshedDate="44567.488278935183" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="1102" xr:uid="{2412A369-8532-4ED0-9AB6-D475EFA48654}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="aawang" refreshedDate="44599.820435069443" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="1134" xr:uid="{4FFD6A7C-F5C4-43A2-832A-E13F5F66264B}">
   <cacheSource type="worksheet">
     <worksheetSource name="Table1"/>
   </cacheSource>
   <cacheFields count="4">
     <cacheField name="Day" numFmtId="22">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2018-12-31T00:00:00" maxDate="2022-01-06T00:00:00" count="1102">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2018-12-31T00:00:00" maxDate="2022-02-07T00:00:00" count="1134">
         <d v="2018-12-31T00:00:00"/>
         <d v="2019-01-01T00:00:00"/>
         <d v="2019-01-02T00:00:00"/>
@@ -1968,11 +1980,44 @@
         <d v="2022-01-03T00:00:00"/>
         <d v="2022-01-04T00:00:00"/>
         <d v="2022-01-05T00:00:00"/>
+        <d v="2022-01-06T00:00:00"/>
+        <d v="2022-01-07T00:00:00"/>
+        <d v="2022-01-08T00:00:00"/>
+        <d v="2022-01-09T00:00:00"/>
+        <d v="2022-01-10T00:00:00"/>
+        <d v="2022-01-11T00:00:00"/>
+        <d v="2022-01-12T00:00:00"/>
+        <d v="2022-01-13T00:00:00"/>
+        <d v="2022-01-14T00:00:00"/>
+        <d v="2022-01-15T00:00:00"/>
+        <d v="2022-01-16T00:00:00"/>
+        <d v="2022-01-17T00:00:00"/>
+        <d v="2022-01-18T00:00:00"/>
+        <d v="2022-01-19T00:00:00"/>
+        <d v="2022-01-20T00:00:00"/>
+        <d v="2022-01-21T00:00:00"/>
+        <d v="2022-01-22T00:00:00"/>
+        <d v="2022-01-23T00:00:00"/>
+        <d v="2022-01-24T00:00:00"/>
+        <d v="2022-01-25T00:00:00"/>
+        <d v="2022-01-26T00:00:00"/>
+        <d v="2022-01-27T00:00:00"/>
+        <d v="2022-01-28T00:00:00"/>
+        <d v="2022-01-29T00:00:00"/>
+        <d v="2022-01-30T00:00:00"/>
+        <d v="2022-01-31T00:00:00"/>
+        <d v="2022-02-01T00:00:00"/>
+        <d v="2022-02-02T00:00:00"/>
+        <d v="2022-02-03T00:00:00"/>
+        <d v="2022-02-04T00:00:00"/>
+        <d v="2022-02-05T00:00:00"/>
+        <d v="2022-02-06T00:00:00"/>
       </sharedItems>
       <fieldGroup base="0">
-        <rangePr autoStart="0" groupBy="days" startDate="2019-01-07T00:00:00" endDate="2022-01-06T00:00:00" groupInterval="7"/>
-        <groupItems count="159">
-          <s v="&lt;1/7/2019"/>
+        <rangePr groupBy="days" startDate="2018-12-31T00:00:00" endDate="2022-02-07T00:00:00" groupInterval="7"/>
+        <groupItems count="164">
+          <s v="&lt;12/31/2018"/>
+          <s v="12/31/2018 - 1/6/2019"/>
           <s v="1/7/2019 - 1/13/2019"/>
           <s v="1/14/2019 - 1/20/2019"/>
           <s v="1/21/2019 - 1/27/2019"/>
@@ -2129,8 +2174,12 @@
           <s v="12/13/2021 - 12/19/2021"/>
           <s v="12/20/2021 - 12/26/2021"/>
           <s v="12/27/2021 - 1/2/2022"/>
-          <s v="1/3/2022 - 1/6/2022"/>
-          <s v="&gt;1/6/2022"/>
+          <s v="1/3/2022 - 1/9/2022"/>
+          <s v="1/10/2022 - 1/16/2022"/>
+          <s v="1/17/2022 - 1/23/2022"/>
+          <s v="1/24/2022 - 1/30/2022"/>
+          <s v="1/31/2022 - 2/6/2022"/>
+          <s v="&gt;2/7/2022"/>
         </groupItems>
       </fieldGroup>
     </cacheField>
@@ -2141,7 +2190,7 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="382260" maxValue="448416"/>
     </cacheField>
     <cacheField name="% Observed" numFmtId="2">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="24.4" maxValue="95.9"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="24.4" maxValue="96.5"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -2153,7 +2202,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="1102">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="1134">
   <r>
     <x v="0"/>
     <n v="8230625.5999999996"/>
@@ -8766,15 +8815,207 @@
     <n v="446112"/>
     <n v="91.8"/>
   </r>
+  <r>
+    <x v="1102"/>
+    <n v="11169788.9"/>
+    <n v="446112"/>
+    <n v="94.2"/>
+  </r>
+  <r>
+    <x v="1103"/>
+    <n v="11453211.9"/>
+    <n v="446112"/>
+    <n v="84.8"/>
+  </r>
+  <r>
+    <x v="1104"/>
+    <n v="9469164.3000000007"/>
+    <n v="446112"/>
+    <n v="94.2"/>
+  </r>
+  <r>
+    <x v="1105"/>
+    <n v="6891211.5999999996"/>
+    <n v="446112"/>
+    <n v="94.1"/>
+  </r>
+  <r>
+    <x v="1106"/>
+    <n v="10869671.699999999"/>
+    <n v="446112"/>
+    <n v="87.7"/>
+  </r>
+  <r>
+    <x v="1107"/>
+    <n v="11010538.1"/>
+    <n v="446112"/>
+    <n v="93.7"/>
+  </r>
+  <r>
+    <x v="1108"/>
+    <n v="11248707.199999999"/>
+    <n v="446112"/>
+    <n v="93.4"/>
+  </r>
+  <r>
+    <x v="1109"/>
+    <n v="11242034.800000001"/>
+    <n v="444964"/>
+    <n v="96.3"/>
+  </r>
+  <r>
+    <x v="1110"/>
+    <n v="11648639.5"/>
+    <n v="444960"/>
+    <n v="96.3"/>
+  </r>
+  <r>
+    <x v="1111"/>
+    <n v="9178342.5999999996"/>
+    <n v="446108"/>
+    <n v="93.1"/>
+  </r>
+  <r>
+    <x v="1112"/>
+    <n v="6596739.2999999998"/>
+    <n v="446112"/>
+    <n v="94.4"/>
+  </r>
+  <r>
+    <x v="1113"/>
+    <n v="10372275.800000001"/>
+    <n v="446112"/>
+    <n v="91.8"/>
+  </r>
+  <r>
+    <x v="1114"/>
+    <n v="11207010"/>
+    <n v="446112"/>
+    <n v="96.1"/>
+  </r>
+  <r>
+    <x v="1115"/>
+    <n v="11370201.5"/>
+    <n v="446112"/>
+    <n v="93.5"/>
+  </r>
+  <r>
+    <x v="1116"/>
+    <n v="11501653.9"/>
+    <n v="446112"/>
+    <n v="95.9"/>
+  </r>
+  <r>
+    <x v="1117"/>
+    <n v="11813630.6"/>
+    <n v="446112"/>
+    <n v="96"/>
+  </r>
+  <r>
+    <x v="1118"/>
+    <n v="9684270.3000000007"/>
+    <n v="446112"/>
+    <n v="96.5"/>
+  </r>
+  <r>
+    <x v="1119"/>
+    <n v="6981027.0999999996"/>
+    <n v="446112"/>
+    <n v="90.6"/>
+  </r>
+  <r>
+    <x v="1120"/>
+    <n v="11137286.800000001"/>
+    <n v="446112"/>
+    <n v="78.5"/>
+  </r>
+  <r>
+    <x v="1121"/>
+    <n v="11348744"/>
+    <n v="446112"/>
+    <n v="92.6"/>
+  </r>
+  <r>
+    <x v="1122"/>
+    <n v="11831432"/>
+    <n v="446112"/>
+    <n v="95.3"/>
+  </r>
+  <r>
+    <x v="1123"/>
+    <n v="12010582.5"/>
+    <n v="446112"/>
+    <n v="89.8"/>
+  </r>
+  <r>
+    <x v="1124"/>
+    <n v="12477991.199999999"/>
+    <n v="446112"/>
+    <n v="96"/>
+  </r>
+  <r>
+    <x v="1125"/>
+    <n v="10131085.9"/>
+    <n v="446112"/>
+    <n v="95.7"/>
+  </r>
+  <r>
+    <x v="1126"/>
+    <n v="7349287.4000000004"/>
+    <n v="446112"/>
+    <n v="94.3"/>
+  </r>
+  <r>
+    <x v="1127"/>
+    <n v="11532174.9"/>
+    <n v="446112"/>
+    <n v="95.4"/>
+  </r>
+  <r>
+    <x v="1128"/>
+    <n v="11753840.199999999"/>
+    <n v="446112"/>
+    <n v="94.1"/>
+  </r>
+  <r>
+    <x v="1129"/>
+    <n v="11089824.5"/>
+    <n v="446112"/>
+    <n v="80.400000000000006"/>
+  </r>
+  <r>
+    <x v="1130"/>
+    <n v="11933691.800000001"/>
+    <n v="446112"/>
+    <n v="95.6"/>
+  </r>
+  <r>
+    <x v="1131"/>
+    <n v="12655735.5"/>
+    <n v="446112"/>
+    <n v="96.1"/>
+  </r>
+  <r>
+    <x v="1132"/>
+    <n v="9867964.6999999993"/>
+    <n v="446112"/>
+    <n v="96.5"/>
+  </r>
+  <r>
+    <x v="1133"/>
+    <n v="7662937.5"/>
+    <n v="446112"/>
+    <n v="90.2"/>
+  </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8CA1B833-CC3F-4273-A7D0-1B0802EE3884}" name="PivotTable4" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:B162" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{28D9A396-4007-4F54-A816-BCCCFD92B23E}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B166" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" numFmtId="22" showAll="0">
-      <items count="160">
+      <items count="165">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -8934,6 +9175,11 @@
         <item x="156"/>
         <item x="157"/>
         <item x="158"/>
+        <item x="159"/>
+        <item x="160"/>
+        <item x="161"/>
+        <item x="162"/>
+        <item x="163"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -8944,10 +9190,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="159">
-    <i>
-      <x/>
-    </i>
+  <rowItems count="163">
     <i>
       <x v="1"/>
     </i>
@@ -9419,6 +9662,21 @@
     <i>
       <x v="157"/>
     </i>
+    <i>
+      <x v="158"/>
+    </i>
+    <i>
+      <x v="159"/>
+    </i>
+    <i>
+      <x v="160"/>
+    </i>
+    <i>
+      <x v="161"/>
+    </i>
+    <i>
+      <x v="162"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -9442,8 +9700,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8AB26FE8-0471-4387-98C0-69FB576D9128}" name="Table1" displayName="Table1" ref="A1:D1103" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <autoFilter ref="A1:D1103" xr:uid="{7E6078AD-84A6-43E2-BD40-1EC12536EDAE}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8AB26FE8-0471-4387-98C0-69FB576D9128}" name="Table1" displayName="Table1" ref="A1:D1135" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="A1:D1135" xr:uid="{7E6078AD-84A6-43E2-BD40-1EC12536EDAE}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{0BE8E485-ED3D-4657-A21E-DC4635E10E60}" name="Day" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{D2CA3BC8-6A30-4EDA-A856-517876E6FD9E}" name="VMT (Veh-Miles)" dataDxfId="2"/>
@@ -9750,11 +10008,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{428304B8-6C40-49B8-B0F5-0F81418160FC}">
-  <dimension ref="A3:B162"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AFDD3B3-6DA9-4D5E-B49D-7893BB33068F}">
+  <dimension ref="A3:B166"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A155" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:B165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9773,7 +10031,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
-        <v>39</v>
+        <v>195</v>
       </c>
       <c r="B4" s="15">
         <v>59152250.699999996</v>
@@ -9781,7 +10039,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B5" s="15">
         <v>66181817.099999994</v>
@@ -9789,7 +10047,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6" s="15">
         <v>65217107.000000007</v>
@@ -9797,7 +10055,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B7" s="15">
         <v>63764156.799999997</v>
@@ -9805,7 +10063,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B8" s="15">
         <v>68255092.899999991</v>
@@ -9813,7 +10071,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B9" s="15">
         <v>60363403.399999991</v>
@@ -9821,7 +10079,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B10" s="15">
         <v>65513548.100000001</v>
@@ -9829,7 +10087,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B11" s="15">
         <v>66504986.299999997</v>
@@ -9837,7 +10095,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B12" s="15">
         <v>68648000.700000003</v>
@@ -9845,7 +10103,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B13" s="15">
         <v>68744985.799999997</v>
@@ -9853,7 +10111,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B14" s="15">
         <v>68722680.700000003</v>
@@ -9861,7 +10119,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B15" s="15">
         <v>70132915.099999994</v>
@@ -9869,7 +10127,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B16" s="15">
         <v>71034329.5</v>
@@ -9877,7 +10135,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B17" s="15">
         <v>70567540.900000006</v>
@@ -9885,7 +10143,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B18" s="15">
         <v>69473076.700000003</v>
@@ -9893,7 +10151,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B19" s="15">
         <v>69497368.099999994</v>
@@ -9901,7 +10159,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B20" s="15">
         <v>71972742.399999991</v>
@@ -9909,7 +10167,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B21" s="15">
         <v>72009162.700000003</v>
@@ -9917,7 +10175,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B22" s="15">
         <v>72520435.199999988</v>
@@ -9925,7 +10183,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B23" s="15">
         <v>70832701.599999994</v>
@@ -9933,7 +10191,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B24" s="15">
         <v>69735634.400000006</v>
@@ -9941,7 +10199,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B25" s="15">
         <v>68804376.700000003</v>
@@ -9949,7 +10207,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B26" s="15">
         <v>72167863.299999997</v>
@@ -9957,7 +10215,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B27" s="15">
         <v>72802863.400000006</v>
@@ -9965,7 +10223,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B28" s="15">
         <v>72996099.599999994</v>
@@ -9973,7 +10231,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B29" s="15">
         <v>72780489.200000003</v>
@@ -9981,7 +10239,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B30" s="15">
         <v>66094247.200000003</v>
@@ -9989,7 +10247,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B31" s="15">
         <v>72861868.5</v>
@@ -9997,7 +10255,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B32" s="15">
         <v>73653810.200000003</v>
@@ -10005,7 +10263,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B33" s="15">
         <v>71208809.5</v>
@@ -10013,7 +10271,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B34" s="15">
         <v>73063204.399999991</v>
@@ -10021,7 +10279,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B35" s="15">
         <v>73168406.099999994</v>
@@ -10029,7 +10287,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B36" s="15">
         <v>74106570.700000003</v>
@@ -10037,7 +10295,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B37" s="15">
         <v>72476492.700000003</v>
@@ -10045,7 +10303,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B38" s="15">
         <v>71489223.400000006</v>
@@ -10053,7 +10311,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B39" s="15">
         <v>76166552</v>
@@ -10061,7 +10319,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B40" s="15">
         <v>80390593.200000003</v>
@@ -10069,7 +10327,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B41" s="15">
         <v>78962857.099999994</v>
@@ -10077,7 +10335,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B42" s="15">
         <v>79566755.799999997</v>
@@ -10085,7 +10343,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B43" s="15">
         <v>81921105.500000015</v>
@@ -10093,7 +10351,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B44" s="15">
         <v>80993125.799999997</v>
@@ -10101,7 +10359,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B45" s="15">
         <v>79049533.900000006</v>
@@ -10109,7 +10367,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B46" s="15">
         <v>79283212.900000006</v>
@@ -10117,7 +10375,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B47" s="15">
         <v>76918383.599999994</v>
@@ -10125,7 +10383,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B48" s="15">
         <v>78170121.600000009</v>
@@ -10133,7 +10391,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B49" s="15">
         <v>78014877.899999991</v>
@@ -10141,7 +10399,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B50" s="15">
         <v>77684934.600000009</v>
@@ -10149,7 +10407,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B51" s="15">
         <v>61943994.500000007</v>
@@ -10157,7 +10415,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B52" s="15">
         <v>77407677.5</v>
@@ -10165,7 +10423,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B53" s="15">
         <v>80388859.900000006</v>
@@ -10173,7 +10431,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B54" s="15">
         <v>86315706.700000003</v>
@@ -10181,7 +10439,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B55" s="15">
         <v>68554998.200000003</v>
@@ -10189,7 +10447,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B56" s="15">
         <v>69071704.899999991</v>
@@ -10197,7 +10455,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B57" s="15">
         <v>77432451.099999994</v>
@@ -10205,7 +10463,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B58" s="15">
         <v>77918793.300000012</v>
@@ -10213,7 +10471,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B59" s="15">
         <v>82916137</v>
@@ -10221,7 +10479,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B60" s="15">
         <v>84761913.599999994</v>
@@ -10229,7 +10487,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B61" s="15">
         <v>76481491.200000003</v>
@@ -10237,7 +10495,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B62" s="15">
         <v>84762174.299999997</v>
@@ -10245,7 +10503,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B63" s="15">
         <v>84572858.599999994</v>
@@ -10253,7 +10511,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B64" s="15">
         <v>85724102.099999994</v>
@@ -10261,7 +10519,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B65" s="15">
         <v>86373199.200000003</v>
@@ -10269,7 +10527,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B66" s="15">
         <v>81623111.899999991</v>
@@ -10277,7 +10535,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B67" s="15">
         <v>62975537.79999999</v>
@@ -10285,7 +10543,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B68" s="15">
         <v>55539741.399999999</v>
@@ -10293,7 +10551,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B69" s="15">
         <v>52933614.700000003</v>
@@ -10301,7 +10559,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B70" s="15">
         <v>53293011.100000001</v>
@@ -10309,7 +10567,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B71" s="15">
         <v>54639045.500000007</v>
@@ -10317,7 +10575,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B72" s="15">
         <v>58384926.200000003</v>
@@ -10325,7 +10583,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B73" s="15">
         <v>61277828.299999997</v>
@@ -10333,7 +10591,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B74" s="15">
         <v>66999993.399999999</v>
@@ -10341,7 +10599,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B75" s="15">
         <v>66888364.700000003</v>
@@ -10349,7 +10607,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B76" s="15">
         <v>69745664.5</v>
@@ -10357,7 +10615,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B77" s="15">
         <v>70478852.900000006</v>
@@ -10365,7 +10623,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B78" s="15">
         <v>72656052.099999994</v>
@@ -10373,7 +10631,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B79" s="15">
         <v>75657023.999999985</v>
@@ -10381,7 +10639,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B80" s="15">
         <v>77658669.900000006</v>
@@ -10389,7 +10647,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B81" s="15">
         <v>79090994.899999991</v>
@@ -10397,7 +10655,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B82" s="15">
         <v>71036748.5</v>
@@ -10405,7 +10663,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B83" s="15">
         <v>75132147.299999982</v>
@@ -10413,7 +10671,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B84" s="15">
         <v>77876663.300000012</v>
@@ -10421,7 +10679,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B85" s="15">
         <v>75872761.200000003</v>
@@ -10429,7 +10687,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B86" s="15">
         <v>78881712.600000009</v>
@@ -10437,7 +10695,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B87" s="15">
         <v>77100371.700000003</v>
@@ -10445,7 +10703,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B88" s="15">
         <v>76680782.200000003</v>
@@ -10453,7 +10711,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B89" s="15">
         <v>76457886.800000012</v>
@@ -10461,7 +10719,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B90" s="15">
         <v>75910860.700000003</v>
@@ -10469,7 +10727,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B91" s="15">
         <v>74812791.299999982</v>
@@ -10477,7 +10735,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B92" s="15">
         <v>72821163.099999994</v>
@@ -10485,7 +10743,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B93" s="15">
         <v>75983321.200000003</v>
@@ -10493,7 +10751,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B94" s="15">
         <v>76067656.200000003</v>
@@ -10501,7 +10759,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B95" s="15">
         <v>75454365.200000003</v>
@@ -10509,7 +10767,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B96" s="15">
         <v>75647504.300000012</v>
@@ -10517,7 +10775,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B97" s="15">
         <v>76026363.5</v>
@@ -10525,7 +10783,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B98" s="15">
         <v>73717843.200000003</v>
@@ -10533,7 +10791,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B99" s="15">
         <v>72454970.400000006</v>
@@ -10541,7 +10799,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B100" s="15">
         <v>69941470</v>
@@ -10549,7 +10807,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B101" s="15">
         <v>65299026.699999996</v>
@@ -10557,7 +10815,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B102" s="15">
         <v>68362459.200000003</v>
@@ -10565,7 +10823,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B103" s="15">
         <v>62335548.700000003</v>
@@ -10573,7 +10831,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B104" s="15">
         <v>69623984.299999997</v>
@@ -10581,7 +10839,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B105" s="15">
         <v>69445884.5</v>
@@ -10589,7 +10847,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B106" s="15">
         <v>71049109.5</v>
@@ -10597,7 +10855,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B107" s="15">
         <v>63694016.799999997</v>
@@ -10605,7 +10863,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B108" s="15">
         <v>62198127.999999993</v>
@@ -10613,7 +10871,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B109" s="15">
         <v>69414613</v>
@@ -10621,7 +10879,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B110" s="15">
         <v>69764092.200000003</v>
@@ -10629,7 +10887,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B111" s="15">
         <v>68060233.299999997</v>
@@ -10637,7 +10895,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B112" s="15">
         <v>69571078.699999988</v>
@@ -10645,7 +10903,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B113" s="15">
         <v>70220770.899999991</v>
@@ -10653,7 +10911,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B114" s="15">
         <v>70660443.399999991</v>
@@ -10661,7 +10919,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B115" s="15">
         <v>68090422.299999997</v>
@@ -10669,7 +10927,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B116" s="15">
         <v>76337103.800000012</v>
@@ -10677,7 +10935,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B117" s="15">
         <v>78213949.400000006</v>
@@ -10685,7 +10943,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B118" s="15">
         <v>77075398.100000009</v>
@@ -10693,7 +10951,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B119" s="15">
         <v>79068293.900000006</v>
@@ -10701,7 +10959,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B120" s="15">
         <v>80648802.200000003</v>
@@ -10709,7 +10967,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B121" s="15">
         <v>78352346.100000009</v>
@@ -10717,7 +10975,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B122" s="15">
         <v>78959710.599999994</v>
@@ -10725,7 +10983,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B123" s="15">
         <v>78127863</v>
@@ -10733,7 +10991,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B124" s="15">
         <v>79302102.599999994</v>
@@ -10741,7 +10999,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B125" s="15">
         <v>79764440.800000012</v>
@@ -10749,7 +11007,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B126" s="15">
         <v>81377441.900000006</v>
@@ -10757,7 +11015,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B127" s="15">
         <v>79723017.299999997</v>
@@ -10765,7 +11023,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B128" s="15">
         <v>80769886</v>
@@ -10773,7 +11031,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B129" s="15">
         <v>81833504.400000006</v>
@@ -10781,7 +11039,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B130" s="15">
         <v>80365107.900000006</v>
@@ -10789,7 +11047,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B131" s="15">
         <v>83621484.5</v>
@@ -10797,7 +11055,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B132" s="15">
         <v>85674980.100000009</v>
@@ -10805,7 +11063,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B133" s="15">
         <v>84420286.299999997</v>
@@ -10813,7 +11071,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B134" s="15">
         <v>82428893.399999991</v>
@@ -10821,7 +11079,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" s="14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B135" s="15">
         <v>81532035.100000009</v>
@@ -10829,7 +11087,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B136" s="15">
         <v>85148992.700000003</v>
@@ -10837,7 +11095,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" s="14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B137" s="15">
         <v>83008618.299999997</v>
@@ -10845,7 +11103,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" s="14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B138" s="15">
         <v>84208934</v>
@@ -10853,7 +11111,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B139" s="15">
         <v>83511307.899999991</v>
@@ -10861,7 +11119,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B140" s="15">
         <v>84111158.300000012</v>
@@ -10869,7 +11127,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" s="14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B141" s="15">
         <v>81174006.600000009</v>
@@ -10877,7 +11135,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" s="14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B142" s="15">
         <v>82683985.700000003</v>
@@ -10885,7 +11143,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" s="14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B143" s="15">
         <v>80633393.499999985</v>
@@ -10893,7 +11151,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" s="14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B144" s="15">
         <v>79402042.200000003</v>
@@ -10901,7 +11159,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B145" s="15">
         <v>82658901.200000018</v>
@@ -10909,7 +11167,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" s="14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B146" s="15">
         <v>83162665.599999994</v>
@@ -10917,7 +11175,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" s="14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B147" s="15">
         <v>82395341.299999997</v>
@@ -10925,7 +11183,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" s="14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B148" s="15">
         <v>81814001.600000009</v>
@@ -10933,7 +11191,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" s="14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B149" s="15">
         <v>80915977.299999997</v>
@@ -10941,7 +11199,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B150" s="15">
         <v>79954935.100000009</v>
@@ -10949,7 +11207,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" s="14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B151" s="15">
         <v>80272890.400000006</v>
@@ -10957,7 +11215,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B152" s="15">
         <v>79457303.299999997</v>
@@ -10965,7 +11223,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" s="14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B153" s="15">
         <v>79542545.299999997</v>
@@ -10973,7 +11231,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" s="14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B154" s="15">
         <v>80116497.699999988</v>
@@ -10981,7 +11239,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B155" s="15">
         <v>72167973.100000009</v>
@@ -10989,7 +11247,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" s="14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B156" s="15">
         <v>79550158.899999991</v>
@@ -10997,7 +11255,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B157" s="15">
         <v>75668913.300000012</v>
@@ -11005,7 +11263,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B158" s="15">
         <v>77809476.099999994</v>
@@ -11013,7 +11271,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" s="14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B159" s="15">
         <v>71502911.799999997</v>
@@ -11021,7 +11279,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B160" s="15">
         <v>62352608.000000007</v>
@@ -11032,15 +11290,47 @@
         <v>196</v>
       </c>
       <c r="B161" s="15">
-        <v>32564739.5</v>
+        <v>71548116.199999988</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="B162" s="15">
+        <v>71794673.200000003</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A163" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="B163" s="15">
+        <v>72930069.200000003</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A164" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="B164" s="15">
+        <v>76286409.800000012</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A165" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="B165" s="15">
+        <v>76496169.100000009</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A166" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B162" s="15">
-        <v>11707162930.599993</v>
+      <c r="B166" s="15">
+        <v>12043653628.599995</v>
       </c>
     </row>
   </sheetData>
@@ -11050,10 +11340,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1103"/>
+  <dimension ref="A1:D1135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A355" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F357" sqref="F357"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:D1135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -26504,6 +26794,454 @@
       </c>
       <c r="D1103" s="4">
         <v>91.8</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1104" s="1">
+        <v>44567</v>
+      </c>
+      <c r="B1104" s="2">
+        <v>11169788.9</v>
+      </c>
+      <c r="C1104" s="3">
+        <v>446112</v>
+      </c>
+      <c r="D1104" s="4">
+        <v>94.2</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1105" s="1">
+        <v>44568</v>
+      </c>
+      <c r="B1105" s="2">
+        <v>11453211.9</v>
+      </c>
+      <c r="C1105" s="3">
+        <v>446112</v>
+      </c>
+      <c r="D1105" s="4">
+        <v>84.8</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1106" s="1">
+        <v>44569</v>
+      </c>
+      <c r="B1106" s="2">
+        <v>9469164.3000000007</v>
+      </c>
+      <c r="C1106" s="3">
+        <v>446112</v>
+      </c>
+      <c r="D1106" s="4">
+        <v>94.2</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1107" s="1">
+        <v>44570</v>
+      </c>
+      <c r="B1107" s="2">
+        <v>6891211.5999999996</v>
+      </c>
+      <c r="C1107" s="3">
+        <v>446112</v>
+      </c>
+      <c r="D1107" s="4">
+        <v>94.1</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1108" s="1">
+        <v>44571</v>
+      </c>
+      <c r="B1108" s="2">
+        <v>10869671.699999999</v>
+      </c>
+      <c r="C1108" s="3">
+        <v>446112</v>
+      </c>
+      <c r="D1108" s="4">
+        <v>87.7</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1109" s="1">
+        <v>44572</v>
+      </c>
+      <c r="B1109" s="2">
+        <v>11010538.1</v>
+      </c>
+      <c r="C1109" s="3">
+        <v>446112</v>
+      </c>
+      <c r="D1109" s="4">
+        <v>93.7</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1110" s="1">
+        <v>44573</v>
+      </c>
+      <c r="B1110" s="2">
+        <v>11248707.199999999</v>
+      </c>
+      <c r="C1110" s="3">
+        <v>446112</v>
+      </c>
+      <c r="D1110" s="4">
+        <v>93.4</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1111" s="1">
+        <v>44574</v>
+      </c>
+      <c r="B1111" s="2">
+        <v>11242034.800000001</v>
+      </c>
+      <c r="C1111" s="3">
+        <v>444964</v>
+      </c>
+      <c r="D1111" s="4">
+        <v>96.3</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1112" s="1">
+        <v>44575</v>
+      </c>
+      <c r="B1112" s="2">
+        <v>11648639.5</v>
+      </c>
+      <c r="C1112" s="3">
+        <v>444960</v>
+      </c>
+      <c r="D1112" s="4">
+        <v>96.3</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1113" s="1">
+        <v>44576</v>
+      </c>
+      <c r="B1113" s="2">
+        <v>9178342.5999999996</v>
+      </c>
+      <c r="C1113" s="3">
+        <v>446108</v>
+      </c>
+      <c r="D1113" s="4">
+        <v>93.1</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1114" s="1">
+        <v>44577</v>
+      </c>
+      <c r="B1114" s="2">
+        <v>6596739.2999999998</v>
+      </c>
+      <c r="C1114" s="3">
+        <v>446112</v>
+      </c>
+      <c r="D1114" s="4">
+        <v>94.4</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1115" s="1">
+        <v>44578</v>
+      </c>
+      <c r="B1115" s="2">
+        <v>10372275.800000001</v>
+      </c>
+      <c r="C1115" s="3">
+        <v>446112</v>
+      </c>
+      <c r="D1115" s="4">
+        <v>91.8</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1116" s="1">
+        <v>44579</v>
+      </c>
+      <c r="B1116" s="2">
+        <v>11207010</v>
+      </c>
+      <c r="C1116" s="3">
+        <v>446112</v>
+      </c>
+      <c r="D1116" s="4">
+        <v>96.1</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1117" s="1">
+        <v>44580</v>
+      </c>
+      <c r="B1117" s="2">
+        <v>11370201.5</v>
+      </c>
+      <c r="C1117" s="3">
+        <v>446112</v>
+      </c>
+      <c r="D1117" s="4">
+        <v>93.5</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1118" s="1">
+        <v>44581</v>
+      </c>
+      <c r="B1118" s="2">
+        <v>11501653.9</v>
+      </c>
+      <c r="C1118" s="3">
+        <v>446112</v>
+      </c>
+      <c r="D1118" s="4">
+        <v>95.9</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1119" s="1">
+        <v>44582</v>
+      </c>
+      <c r="B1119" s="2">
+        <v>11813630.6</v>
+      </c>
+      <c r="C1119" s="3">
+        <v>446112</v>
+      </c>
+      <c r="D1119" s="4">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1120" s="1">
+        <v>44583</v>
+      </c>
+      <c r="B1120" s="2">
+        <v>9684270.3000000007</v>
+      </c>
+      <c r="C1120" s="3">
+        <v>446112</v>
+      </c>
+      <c r="D1120" s="4">
+        <v>96.5</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1121" s="1">
+        <v>44584</v>
+      </c>
+      <c r="B1121" s="2">
+        <v>6981027.0999999996</v>
+      </c>
+      <c r="C1121" s="3">
+        <v>446112</v>
+      </c>
+      <c r="D1121" s="4">
+        <v>90.6</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1122" s="1">
+        <v>44585</v>
+      </c>
+      <c r="B1122" s="2">
+        <v>11137286.800000001</v>
+      </c>
+      <c r="C1122" s="3">
+        <v>446112</v>
+      </c>
+      <c r="D1122" s="4">
+        <v>78.5</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1123" s="1">
+        <v>44586</v>
+      </c>
+      <c r="B1123" s="2">
+        <v>11348744</v>
+      </c>
+      <c r="C1123" s="3">
+        <v>446112</v>
+      </c>
+      <c r="D1123" s="4">
+        <v>92.6</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1124" s="1">
+        <v>44587</v>
+      </c>
+      <c r="B1124" s="2">
+        <v>11831432</v>
+      </c>
+      <c r="C1124" s="3">
+        <v>446112</v>
+      </c>
+      <c r="D1124" s="4">
+        <v>95.3</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1125" s="1">
+        <v>44588</v>
+      </c>
+      <c r="B1125" s="2">
+        <v>12010582.5</v>
+      </c>
+      <c r="C1125" s="3">
+        <v>446112</v>
+      </c>
+      <c r="D1125" s="4">
+        <v>89.8</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1126" s="1">
+        <v>44589</v>
+      </c>
+      <c r="B1126" s="2">
+        <v>12477991.199999999</v>
+      </c>
+      <c r="C1126" s="3">
+        <v>446112</v>
+      </c>
+      <c r="D1126" s="4">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1127" s="1">
+        <v>44590</v>
+      </c>
+      <c r="B1127" s="2">
+        <v>10131085.9</v>
+      </c>
+      <c r="C1127" s="3">
+        <v>446112</v>
+      </c>
+      <c r="D1127" s="4">
+        <v>95.7</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1128" s="1">
+        <v>44591</v>
+      </c>
+      <c r="B1128" s="2">
+        <v>7349287.4000000004</v>
+      </c>
+      <c r="C1128" s="3">
+        <v>446112</v>
+      </c>
+      <c r="D1128" s="4">
+        <v>94.3</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1129" s="1">
+        <v>44592</v>
+      </c>
+      <c r="B1129" s="2">
+        <v>11532174.9</v>
+      </c>
+      <c r="C1129" s="3">
+        <v>446112</v>
+      </c>
+      <c r="D1129" s="4">
+        <v>95.4</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1130" s="1">
+        <v>44593</v>
+      </c>
+      <c r="B1130" s="2">
+        <v>11753840.199999999</v>
+      </c>
+      <c r="C1130" s="3">
+        <v>446112</v>
+      </c>
+      <c r="D1130" s="4">
+        <v>94.1</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1131" s="1">
+        <v>44594</v>
+      </c>
+      <c r="B1131" s="2">
+        <v>11089824.5</v>
+      </c>
+      <c r="C1131" s="3">
+        <v>446112</v>
+      </c>
+      <c r="D1131" s="4">
+        <v>80.400000000000006</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1132" s="1">
+        <v>44595</v>
+      </c>
+      <c r="B1132" s="2">
+        <v>11933691.800000001</v>
+      </c>
+      <c r="C1132" s="3">
+        <v>446112</v>
+      </c>
+      <c r="D1132" s="4">
+        <v>95.6</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1133" s="1">
+        <v>44596</v>
+      </c>
+      <c r="B1133" s="2">
+        <v>12655735.5</v>
+      </c>
+      <c r="C1133" s="3">
+        <v>446112</v>
+      </c>
+      <c r="D1133" s="4">
+        <v>96.1</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1134" s="1">
+        <v>44597</v>
+      </c>
+      <c r="B1134" s="2">
+        <v>9867964.6999999993</v>
+      </c>
+      <c r="C1134" s="3">
+        <v>446112</v>
+      </c>
+      <c r="D1134" s="4">
+        <v>96.5</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1135" s="1">
+        <v>44598</v>
+      </c>
+      <c r="B1135" s="2">
+        <v>7662937.5</v>
+      </c>
+      <c r="C1135" s="3">
+        <v>446112</v>
+      </c>
+      <c r="D1135" s="4">
+        <v>90.2</v>
       </c>
     </row>
   </sheetData>
